--- a/pagos/inputs_example/config.xlsx
+++ b/pagos/inputs_example/config.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscar/Documents/repos/asoarcos/pagos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villalta\Documents\Personal\repos\qb_test\Julio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC5B9A-4937-1E4D-B6AB-1217228D58F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9348A88B-8DF8-4140-8CAB-225E51285BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9560" yWindow="3860" windowWidth="18560" windowHeight="12640" activeTab="2" xr2:uid="{9064C75C-1D97-6445-A380-182879FD317F}"/>
+    <workbookView xWindow="3450" yWindow="810" windowWidth="19815" windowHeight="13095" activeTab="3" xr2:uid="{9064C75C-1D97-6445-A380-182879FD317F}"/>
   </bookViews>
   <sheets>
     <sheet name="principal" sheetId="2" r:id="rId1"/>
     <sheet name="columnas bancos" sheetId="1" r:id="rId2"/>
     <sheet name="excepciones clientes" sheetId="3" r:id="rId3"/>
+    <sheet name="descripciones anteriores" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="264">
   <si>
     <t>bcr</t>
   </si>
@@ -125,19 +126,729 @@
   </si>
   <si>
     <t>monto especial</t>
+  </si>
+  <si>
+    <t>ignorar</t>
+  </si>
+  <si>
+    <t>Casa 1054 Jose Corrales</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Casa 1221 Inmobiliaria Vilchez</t>
+  </si>
+  <si>
+    <t>Casa 2056 3-101-633201 S.A</t>
+  </si>
+  <si>
+    <t>Casa 2083 DACE S.A.</t>
+  </si>
+  <si>
+    <t>Casa 2106-A Gladys Corrales</t>
+  </si>
+  <si>
+    <t>Casa 2106-B Ben Jeffery Nix</t>
+  </si>
+  <si>
+    <t>Casa 2134 Gloria Nino</t>
+  </si>
+  <si>
+    <t>Casa 2140Luis Fernando Echeverri Palacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - PAGO CASAS 173 Y 2144 DE JOSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - CARSIL SRL 1/169 TEL8915/5319 </t>
+  </si>
+  <si>
+    <t>Casa 1169 Carsil SRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - Canc Casa 181 </t>
+  </si>
+  <si>
+    <t>Casa 1181 - Pamela Martí Morales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - PAGO MANTENIMIENTO CASA 2107 </t>
+  </si>
+  <si>
+    <t>Casa 2107 Gladis Corrales Corrales</t>
+  </si>
+  <si>
+    <t>DEPOSITOS -   ELIZABETH LORIA MANTENIMIENTO CASA 1-129</t>
+  </si>
+  <si>
+    <t>Casa 1129 Margarita Loría Bertozzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREDITO INTERBANCARI - TAGUASCO SOCIEDASO ARCOS TAGUA </t>
+  </si>
+  <si>
+    <t>Casa 1174 Taguasco S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREDITO INTERBANCARI - INSIDE_A_MIRRORCD BAC </t>
+  </si>
+  <si>
+    <t>Casa 1114 - Inside a Mirror SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN ENTRANTE SINPE - SHEEPHORN LIMIT-ASO ARCOS SHEE </t>
+  </si>
+  <si>
+    <t>Casa 1074 SHEEPHORN LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN ENTRANTE SINPE - JUMER E HIJOS L-ASO ARCOS JUME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN ENTRANTE SINPE - COMERCIO DE ACC-ASO ARCOS COME </t>
+  </si>
+  <si>
+    <t>Casa 1033 Comercio de Acciones S.A.</t>
+  </si>
+  <si>
+    <t>DEPOSITOS -  DORA CHINCHILLA VALVERDE CASA 2-148 DORA CHINCHILLA</t>
+  </si>
+  <si>
+    <t>Casa 2148 Dora Chinchilla</t>
+  </si>
+  <si>
+    <t>DEPOSITOS -  ANA CAMPOS NUNEZ CASA 102</t>
+  </si>
+  <si>
+    <t>Casa 1102 Indiana Nuñez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - CASA 2096 ESTIMATE /:   13393 </t>
+  </si>
+  <si>
+    <t>Casa 2096 Gordon Baird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - A HILARIO CAS/4 PRADOS DE </t>
+  </si>
+  <si>
+    <t>Casa 2166-D Sociedad Fondebadon S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - SIGRID BEVERLIN R6 C103 </t>
+  </si>
+  <si>
+    <t>Casa 1103 Sigrid Brenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - CASA SR MAX ROT 6 </t>
+  </si>
+  <si>
+    <t>Casa 1095 Max Loya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - CASA SR OLMAN ROT 6 </t>
+  </si>
+  <si>
+    <t>Casa 1093 Fernando Quirós</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - CASA REYNA MARTINEZ ROT 6 </t>
+  </si>
+  <si>
+    <t>Casa 1104 Reyna Martínez Gavarrete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - CASA 2022 A </t>
+  </si>
+  <si>
+    <t>Casa 1022-A Karla Patricia Martinez Rios</t>
+  </si>
+  <si>
+    <t>DEPOSITOS -  JOSE MARIO JARA ALVARADO CASA 1035</t>
+  </si>
+  <si>
+    <t>Casa 1035 Inversiones J &amp; J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - PAGO SEGURIDAD CASA 125 R5 </t>
+  </si>
+  <si>
+    <t>Casa 1125 Zayra Quesada Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - CASA 2066JAIMECORT0SOJEDA MANT </t>
+  </si>
+  <si>
+    <t>Casa 2066 Laguna del Paraiso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - CASA 1090 IRENE REVUELTA </t>
+  </si>
+  <si>
+    <t>Casa 1090 Irene Revuelta Sánchez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREDITO INTERBANCARI - KAROLINA MARIN 0 </t>
+  </si>
+  <si>
+    <t>Casa 2058  Jorge Eduardo Soto Siles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - PAGO IMP CONCORDE CASA 1/084 </t>
+  </si>
+  <si>
+    <t>Casa 1084 Importaciones Concorde Limitada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - JIMMY S CASA 20 69 </t>
+  </si>
+  <si>
+    <t>Casa 2069 Gladys Campos Vega- Jimmy Sibaja Carvajal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - MANTENIMIENTO CASA 2080 </t>
+  </si>
+  <si>
+    <t>Casa 2080 Alberto Campos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - CASA 1/126/ ROTONDA 5 </t>
+  </si>
+  <si>
+    <t>Casa 1126 Jenny Soto S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN ENTRANTE SINPE - LUIS_RODRIGUEZ_-Pago_Casa_17__ </t>
+  </si>
+  <si>
+    <t>Casa 2166-Q Luis Rodriguez Gutiérrez-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - MENS L/ARCOS RDORMOND CASA 294 </t>
+  </si>
+  <si>
+    <t>Casa 2094  Ronald Dormond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - CASA1/109 JUNIO 2023 </t>
+  </si>
+  <si>
+    <t>Casa 1109 Elida Montoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENC BANCOBCR - CASA 198 JORGE TENORIO </t>
+  </si>
+  <si>
+    <t>Casa 1198 Jorge Tenorio</t>
+  </si>
+  <si>
+    <t>SINPE_Movil_Casa_2082_junio23</t>
+  </si>
+  <si>
+    <t>Casa 2082 Lilliana Hernández Martínez</t>
+  </si>
+  <si>
+    <t>TEF DE:ERIKA TRUQUE BARRANTES</t>
+  </si>
+  <si>
+    <t>Casa 1089-B Erika Truque Barrantes</t>
+  </si>
+  <si>
+    <t>TEF DE:ROXANA MARIA LEIVA VEGA</t>
+  </si>
+  <si>
+    <t>Casa 1184 Roxana Leiva Vega</t>
+  </si>
+  <si>
+    <t>TEF DE:DANIELLA CRESPI SANCHEZ</t>
+  </si>
+  <si>
+    <t>Casa 1122 David Carcache</t>
+  </si>
+  <si>
+    <t>Casa 163 rotonda 8 mantenimien</t>
+  </si>
+  <si>
+    <t>Casa 1163 ALFLO 2007 S.A.</t>
+  </si>
+  <si>
+    <t>SINPE MOVIL cass1145</t>
+  </si>
+  <si>
+    <t>Casa 1145 Alba Leda Gómez de Franco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casa 41 a </t>
+  </si>
+  <si>
+    <t>Casa 2041-A Katia Rivera</t>
+  </si>
+  <si>
+    <t>Casa 41 a y b rotonda 13 Kathi</t>
+  </si>
+  <si>
+    <t>Casa 2041-B Katia Rivera</t>
+  </si>
+  <si>
+    <t>SINPE MOVIL Casa_1107A_fac_134</t>
+  </si>
+  <si>
+    <t>Casa 1107-A Cien Mil Dieciseis S.A</t>
+  </si>
+  <si>
+    <t>SINPE MOVIL Casa_2018_fac_1364</t>
+  </si>
+  <si>
+    <t>Casa 2018 Cien Mil Dieciseis S.A.</t>
+  </si>
+  <si>
+    <t>SINPE MOVIL mant_csas_1193_y_1</t>
+  </si>
+  <si>
+    <t>TEF DE:EDUARDO GUTIERREZ CARVA</t>
+  </si>
+  <si>
+    <t>Casa 1048- Eduardo Gutierrez</t>
+  </si>
+  <si>
+    <t>TEF DE:FIORELLA GUTIERREZ CARV</t>
+  </si>
+  <si>
+    <t>Casa 1047  Fiorella Gutierrez</t>
+  </si>
+  <si>
+    <t>TEF DE:JORGE TORRES CALVO</t>
+  </si>
+  <si>
+    <t>Casa 2077 Jorge Torres</t>
+  </si>
+  <si>
+    <t>SINPE MOVIL rodrigo_Brenes_1-1</t>
+  </si>
+  <si>
+    <t>Casa 1130 Rodrigo Brenes</t>
+  </si>
+  <si>
+    <t>SINPE MOVIL rtda12casa23</t>
+  </si>
+  <si>
+    <t>Casa 2023 Marva Spence</t>
+  </si>
+  <si>
+    <t>GERARDO RAMIREZ 2130 B</t>
+  </si>
+  <si>
+    <t>Casa 2130-B Gerardo Ramirez</t>
+  </si>
+  <si>
+    <t>TEF DE:ROCIO CELIA VASQUEZ ARE</t>
+  </si>
+  <si>
+    <t>Casa 1138 Rocío Vásquez Arenas</t>
+  </si>
+  <si>
+    <t>TEF DE:JUAN CARLOS PERALTA JIM</t>
+  </si>
+  <si>
+    <t>Casa 2166-A Rhoda Alarcón y Montes de Oca</t>
+  </si>
+  <si>
+    <t>TEF DE:WENDY PATRICIA SILESKY</t>
+  </si>
+  <si>
+    <t>Casa 1177 Wendy Silesky Chaves</t>
+  </si>
+  <si>
+    <t>TEF DE:COMERCIALIZADORA ERGOLO</t>
+  </si>
+  <si>
+    <t>Casa 2166-O Francisco Alvarado Segura</t>
+  </si>
+  <si>
+    <t>SINPE MOVIL CASA1178</t>
+  </si>
+  <si>
+    <t>casa 1178 Inversiones Varran S.A.</t>
+  </si>
+  <si>
+    <t>TEF DE:HANS VENIER</t>
+  </si>
+  <si>
+    <t>Casa 2166-H Vanessa Chacón - 08</t>
+  </si>
+  <si>
+    <t>CASA #1121</t>
+  </si>
+  <si>
+    <t>Casa 1121 Carmen Castrillo</t>
+  </si>
+  <si>
+    <t>TEF DE:OFELIA MARIA ROJAS AGUI</t>
+  </si>
+  <si>
+    <t>Casa 2102 Ofelia Rojas</t>
+  </si>
+  <si>
+    <t>SINPE_Movil_Casa_2157______</t>
+  </si>
+  <si>
+    <t>Casa 2157 Zaindel Garreta Vega</t>
+  </si>
+  <si>
+    <t>SINPE MOVIL casa_72._cuota</t>
+  </si>
+  <si>
+    <t>Casa 1072 Eduardo Arce Díaz</t>
+  </si>
+  <si>
+    <t>TEF DE:MAURICIO ALBERTO AGUILA</t>
+  </si>
+  <si>
+    <t>Casa 1100 Mauricio Aguilar Castro</t>
+  </si>
+  <si>
+    <t>TEF DE:FREDY A GIRALDO  .</t>
+  </si>
+  <si>
+    <t>Casa 2003-A Freddy Alberto Giraldo</t>
+  </si>
+  <si>
+    <t>SINPE MOVIL CASA_128_DOS_MARIA</t>
+  </si>
+  <si>
+    <t>Casa 2128 Residencias Dos Marías</t>
+  </si>
+  <si>
+    <t>TEF DE:VERONICA SOLORZANO ROJA</t>
+  </si>
+  <si>
+    <t>Casa 2156- Veronica Solórzano</t>
+  </si>
+  <si>
+    <t>TEF DE:BERNARDO ALFARO SOTO</t>
+  </si>
+  <si>
+    <t>Casa 2166-K Bernardo Alfaro Soto</t>
+  </si>
+  <si>
+    <t>TEF DE:OSCAR STEVEN VILLALTA G</t>
+  </si>
+  <si>
+    <t>Casa 1143 Oscar Villalta Gutierrez</t>
+  </si>
+  <si>
+    <t>TEF DE:SILVIA MARIA ROJAS AGUI</t>
+  </si>
+  <si>
+    <t>Casa 2103 Silvia Rojas Aguilar</t>
+  </si>
+  <si>
+    <t>TEF DE:MARIA VANESA CARVAJAL R</t>
+  </si>
+  <si>
+    <t>TEF DE:JUAN  FRANCISCO MARTINE</t>
+  </si>
+  <si>
+    <t>Casa 2092 Juan Francisco Martínez Perez</t>
+  </si>
+  <si>
+    <t>SINPE MOVIL casa_2139******</t>
+  </si>
+  <si>
+    <t>Casa 2139 Guillermo Ramirez Segnini</t>
+  </si>
+  <si>
+    <t>SINPE MOVIL MANT_CASA_1176*</t>
+  </si>
+  <si>
+    <t>Casa 1176 Manuel Fuentes Corea</t>
+  </si>
+  <si>
+    <t>SINPE MOVIL pago_Ana_Detresno_</t>
+  </si>
+  <si>
+    <t>Casa 1154 Ana Lorena Detresno</t>
+  </si>
+  <si>
+    <t>CASA #2031-2032</t>
+  </si>
+  <si>
+    <t>Casa 2031-2032 Alejandro Lapentti</t>
+  </si>
+  <si>
+    <t>R10C120 Pago de Mantenimiento</t>
+  </si>
+  <si>
+    <t>Casa 2120 Glen Woodley</t>
+  </si>
+  <si>
+    <t>SINPE MOVIL casa_1137******</t>
+  </si>
+  <si>
+    <t>Casa 1137 Irsa Diaz Jimenez</t>
+  </si>
+  <si>
+    <t>SINPE MOVIL casa_2045******</t>
+  </si>
+  <si>
+    <t>Casa 2045 Toshio Tamaki</t>
+  </si>
+  <si>
+    <t>TEF DE:ARTURO ADOLFO SUAREZ VI</t>
+  </si>
+  <si>
+    <t>Casa 1217 Arturo Suarez</t>
+  </si>
+  <si>
+    <t>TEF DE:OSCAR ALBERTO VALVERDE</t>
+  </si>
+  <si>
+    <t>Casa 2033 Mariosca S.A.</t>
+  </si>
+  <si>
+    <t>TEF DE:KARLA MARIA ARGUELLO SA</t>
+  </si>
+  <si>
+    <t>Casa 2075 Karla Arguello</t>
+  </si>
+  <si>
+    <t>SINPE MOVIL casa_2158******</t>
+  </si>
+  <si>
+    <t>Casa 2158 Victor Mairena</t>
+  </si>
+  <si>
+    <t>TEF DE:MARCO VINICIO ELIZONDO</t>
+  </si>
+  <si>
+    <t>Casa 2166-N Marco Vinicio Elizondo Vargas</t>
+  </si>
+  <si>
+    <t>Pago factura 69239 casa 2073</t>
+  </si>
+  <si>
+    <t>Casa 2073 Ronald Gonzalez</t>
+  </si>
+  <si>
+    <t>01-07-23 BN-PAR/SARA CASTRO APORTE COMUNAL ROTONDA</t>
+  </si>
+  <si>
+    <t>Casa 1208 Inversiones SECAMI de los Angeles S.A</t>
+  </si>
+  <si>
+    <t>01-07-23 BN-PAR/CASA 2037 JOSE GREEN</t>
+  </si>
+  <si>
+    <t>Casa 2037 José Green</t>
+  </si>
+  <si>
+    <t>01-07-23 MARGARITACAPMANYULACIA/MANTYSEGURIDADCASA</t>
+  </si>
+  <si>
+    <t>Casa 2110 Margarita Capmany</t>
+  </si>
+  <si>
+    <t>01-07-23 LUGO CALDERON EDWIN/CASA 2027 JULIO 23 ED</t>
+  </si>
+  <si>
+    <t>Casa 2027 Edwin Lugo Calderon</t>
+  </si>
+  <si>
+    <t>01-07-23 CATARINELLA ARREA MA/CASA 1201 JULO 2023</t>
+  </si>
+  <si>
+    <t>Casa 1201 Inv.  Inmob. Jaracata SA</t>
+  </si>
+  <si>
+    <t>02-07-23 FERNANDEZ MONTERO CA/ESTIM 13536 CASA 215</t>
+  </si>
+  <si>
+    <t>Casa 2155 Condominio Fernandez y Castro</t>
+  </si>
+  <si>
+    <t>01-07-23 ANA LIZANO/CASA 206 MES JULIO 2023</t>
+  </si>
+  <si>
+    <t>Casa1206 Ana Isabel Lizano</t>
+  </si>
+  <si>
+    <t>01-07-23 GONZALEZ ARAGON MAURICIO/MAURICIO GONZALE</t>
+  </si>
+  <si>
+    <t>Casa 1064- Mauricio Gonzalez Aragon</t>
+  </si>
+  <si>
+    <t>SOTO SILES MARTA ISABEL/ENRIQUE LOPEZ</t>
+  </si>
+  <si>
+    <t>Casa 1140 Enrique Lopez Jimenez</t>
+  </si>
+  <si>
+    <t>AGUILUCES SA/AGUILU 1101B FACT13611</t>
+  </si>
+  <si>
+    <t>Casa 1101-B Aguilu S.A.</t>
+  </si>
+  <si>
+    <t>BN-PAR/Casa 1092 Los Arcos</t>
+  </si>
+  <si>
+    <t>Casa 1092 Cecilia Alpizar</t>
+  </si>
+  <si>
+    <t>BARQUERO CALVO ELIAS/PAGO CUOTA CASA 1006 LG BARQU</t>
+  </si>
+  <si>
+    <t>Casa 1006 Luis Gerardo Barquero</t>
+  </si>
+  <si>
+    <t>ALLUIN MARTINEZ XINIA MA/PAGO CASA 79A XINIA ALLUI</t>
+  </si>
+  <si>
+    <t>Casa 2073-A Xinia Alluim</t>
+  </si>
+  <si>
+    <t>CORPORACION NARA S A/PAGO DE MANTENIMIENTO CASA 20</t>
+  </si>
+  <si>
+    <t>Casa 2046 Yoshio Nara</t>
+  </si>
+  <si>
+    <t>BN-PAR/Pago casa 1038 los Arcos</t>
+  </si>
+  <si>
+    <t>Casa 1038 Wendy Salazar</t>
+  </si>
+  <si>
+    <t>09-07-23 BN-PAR/pago de casa 188B/ Carlos Colon</t>
+  </si>
+  <si>
+    <t>Casa 1188-B Carlos Colon</t>
+  </si>
+  <si>
+    <t>BN-PAR/CUOTA CASA 51 ROTONDA 2 LOS ARCOS I ETAPA</t>
+  </si>
+  <si>
+    <t>Casa 1051 Roxana Quesada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BN-PAR/Pago casas 1-135 </t>
+  </si>
+  <si>
+    <t>Casa 1135 Leticia Rodriguez</t>
+  </si>
+  <si>
+    <t>1-166 Leticia Rodriguez</t>
+  </si>
+  <si>
+    <t>Casa 1166 Leticia Rodriguez Vasquez</t>
+  </si>
+  <si>
+    <t>08-07-23 BARRIENTOS CHACON JAIME/ROTONDA 1 CASA 20</t>
+  </si>
+  <si>
+    <t>Casa 1209 Jaime Barrientos</t>
+  </si>
+  <si>
+    <t>MEZA ARBUROLA JOSE MARIA/CASA 2017 JOSE MEZA JULIO</t>
+  </si>
+  <si>
+    <t>Casa 2017 Jose Meza</t>
+  </si>
+  <si>
+    <t>MARIN ZAMORA CARLOS LUIS/CARLOS MARIN 1 133 JULIO</t>
+  </si>
+  <si>
+    <t>Casa 1133 Carlos Marin Zamora</t>
+  </si>
+  <si>
+    <t>DENGO SOLERA ALVARO ENRI/FACTURA 13641 CASA 1220 Y</t>
+  </si>
+  <si>
+    <t>Casa 1219-1220 Ligia Lizano</t>
+  </si>
+  <si>
+    <t>MARIA EUGENIA AGUILAR MI/CASA 122 ROT 10</t>
+  </si>
+  <si>
+    <t>Casa 2122 Jorge Rojas</t>
+  </si>
+  <si>
+    <t>104-Davivi/MONICA SISTINA SUSI 0</t>
+  </si>
+  <si>
+    <t>Casa 1096 Lucrecia Alvarado Gallo</t>
+  </si>
+  <si>
+    <t>RAMOS RIVAS MARNY LORENA/CASA 1158 FACTURAS 12389</t>
+  </si>
+  <si>
+    <t>Casa 1158  Mario Enrique Chavez Zamora</t>
+  </si>
+  <si>
+    <t>PROYECTOS ECONOMICOS S.A/SEG Y MANT JUNIO 2023 CAS</t>
+  </si>
+  <si>
+    <t>Casa 1017 Hotel Puerta del Sol</t>
+  </si>
+  <si>
+    <t>15-07-23 SOTO RODRIGUEZ LORENA/MANTENIMIENTO 1195</t>
+  </si>
+  <si>
+    <t>Casa 1195 Lorena Soto</t>
+  </si>
+  <si>
+    <t>15-07-23 SOTO RODRIGUEZ LORENA/MANTENIMIENTO 1196</t>
+  </si>
+  <si>
+    <t>Casa 1196 Lorena Soto</t>
+  </si>
+  <si>
+    <t>15-07-23 NAVARRO ROJAS ANDRE/PAGO JULIO CASA 2091</t>
+  </si>
+  <si>
+    <t>Casa 2091 Fernando Navarro Cruz</t>
+  </si>
+  <si>
+    <t>VALVERDE ACOSTA CARMEN M/MANTENIMIENTO JULIO CASA</t>
+  </si>
+  <si>
+    <t>Casa 2068-A Valverde Acosta Carmen Maria</t>
+  </si>
+  <si>
+    <t>15-07-23 CARVALHO PIAGGIO DANIELA/CASA 1217 ARMAND</t>
+  </si>
+  <si>
+    <t>Casa 1173 José Fabio Bolaños Alpizar, Casa 2144  José Fabio Bolaños Alpizar</t>
+  </si>
+  <si>
+    <t>Casa 1073 Jumer e Hijos Limitada, Casa 1097 Jumer e Hijos Limitada,  Casa 1098 Jumer e Hijos Limitada</t>
+  </si>
+  <si>
+    <t>Casa 1193-Eduardo Sandoval Solano, Casa 1044 Andiegosa S.A.</t>
+  </si>
+  <si>
+    <t>Casa 1111 Vanessa Carvajal, Casa 1070 Carmen Rojas, Casa 1183  Corp. Chevan S.A. LOTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,7 +859,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,12 +867,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,12 +1209,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -495,7 +1222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -503,7 +1230,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -511,7 +1238,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -532,14 +1259,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -553,7 +1280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -567,7 +1294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -581,7 +1308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -595,7 +1322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -616,32 +1343,1038 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95008B07-2007-0C4F-91A2-E89A479DE001}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D442A140-8ABD-4656-ABB2-258BD2BEFD74}">
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="1" max="1" width="63.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>179</v>
+      </c>
+      <c r="B74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>193</v>
+      </c>
+      <c r="B82" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>197</v>
+      </c>
+      <c r="B84" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>213</v>
+      </c>
+      <c r="B92" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>215</v>
+      </c>
+      <c r="B93" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>217</v>
+      </c>
+      <c r="B94" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>219</v>
+      </c>
+      <c r="B95" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>221</v>
+      </c>
+      <c r="B96" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>223</v>
+      </c>
+      <c r="B97" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>225</v>
+      </c>
+      <c r="B98" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>227</v>
+      </c>
+      <c r="B99" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>233</v>
+      </c>
+      <c r="B102" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>235</v>
+      </c>
+      <c r="B103" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>237</v>
+      </c>
+      <c r="B104" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>239</v>
+      </c>
+      <c r="B105" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>241</v>
+      </c>
+      <c r="B106" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>243</v>
+      </c>
+      <c r="B107" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>245</v>
+      </c>
+      <c r="B108" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>247</v>
+      </c>
+      <c r="B109" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>251</v>
+      </c>
+      <c r="B111" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>253</v>
+      </c>
+      <c r="B112" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>255</v>
+      </c>
+      <c r="B113" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>257</v>
+      </c>
+      <c r="B114" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>259</v>
+      </c>
+      <c r="B115" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
